--- a/files/APItest/login/LoginWithInvalidCredentialsTest.xlsx
+++ b/files/APItest/login/LoginWithInvalidCredentialsTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesamM\Desktop\automation-project\files\APItest\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9882B9-19EB-4CBC-B93C-2F1D8322C6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC510CB-6552-4E8B-A107-521AE2BCA242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Check response on entering valid s  Credentials(Email and password)</t>
+  </si>
+  <si>
+    <t>expected status code</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -432,9 +435,10 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +457,11 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -473,8 +480,11 @@
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" s="2">
+        <v>422</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -489,8 +499,11 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="2">
+        <v>422</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -509,8 +522,11 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="2">
+        <v>422</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,10 +545,13 @@
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G5" s="2">
+        <v>422</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -548,6 +567,9 @@
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
